--- a/SiK_Radios.xlsx
+++ b/SiK_Radios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Miers\Documents\Christopher Newport University\Grad Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Miers\Documents\Christopher Newport University\Grad Research\Sik_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C166E621-7649-42A5-9875-326ED063C406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2253B7-3931-4784-A92D-0EE95B884F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48E60877-4D87-47E2-9DD7-EC0BD204F274}"/>
   </bookViews>
@@ -18,6 +18,10 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="9" r:id="rId6"/>
+    <sheet name="6" sheetId="8" r:id="rId7"/>
+    <sheet name="7" sheetId="10" r:id="rId8"/>
+    <sheet name="8" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -2358,6 +2362,2230 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SNR vs. Noise Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10471528332950036"/>
+          <c:y val="0.11756569847856155"/>
+          <c:w val="0.85130010695811842"/>
+          <c:h val="0.72889589527450149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SNR vs Noise Amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.351366545106757E-2"/>
+                  <c:y val="-7.5420655405626161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5'!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>9.859999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5'!$B$2:$B$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>46.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BE8-4BD4-AD76-9F6CD3A44DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903229440"/>
+        <c:axId val="40562912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise Amplitude (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40562912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40562912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903229440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SNR vs. Noise Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10471528332950036"/>
+          <c:y val="0.11756569847856155"/>
+          <c:w val="0.85130010695811842"/>
+          <c:h val="0.72889589527450149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SNR vs Noise Amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.351366545106757E-2"/>
+                  <c:y val="-7.5420655405626161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6'!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>9.859999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6'!$B$2:$B$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F1A-435B-9406-B0680FFD2872}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903229440"/>
+        <c:axId val="40562912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise Amplitude (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40562912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40562912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903229440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SNR vs. Noise Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10471528332950036"/>
+          <c:y val="0.11756569847856155"/>
+          <c:w val="0.85130010695811842"/>
+          <c:h val="0.72889589527450149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SNR vs Noise Amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.351366545106757E-2"/>
+                  <c:y val="-7.5420655405626161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'7'!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>9.859999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'7'!$B$2:$B$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>45.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66E6-4F2E-B332-72E539B0CC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903229440"/>
+        <c:axId val="40562912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise Amplitude (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40562912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40562912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903229440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SNR vs. Noise Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10471528332950036"/>
+          <c:y val="0.11756569847856155"/>
+          <c:w val="0.85130010695811842"/>
+          <c:h val="0.72889589527450149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SNR vs Noise Amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.351366545106757E-2"/>
+                  <c:y val="-7.5420655405626161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>9.859999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$B$2:$B$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>45.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90E7-4A02-8604-A0CF4FE26651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903229440"/>
+        <c:axId val="40562912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise Amplitude (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40562912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40562912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903229440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2518,6 +4746,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4067,6 +6455,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4750,6 +9202,178 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567D629C-0ADB-422D-B498-B30CE77E6FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F08BBE-F728-4EF8-BC9B-D4C4603FF9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6376C1-4909-4251-8EC2-2EADF0018640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3439DC-A1AE-420F-ACA3-DFBA7BAE8561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5050,7 +9674,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5121,7 +9745,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -5130,7 +9756,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5139,7 +9767,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5148,7 +9778,9 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -5174,7 +9806,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5506,7 +10138,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5606,4 +10238,432 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2379C5-A802-416D-911E-D9D45E5451F4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>46.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.659999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>36.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>32.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>3.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09446A-2BDF-477A-B1B7-9FB188606C8E}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>36.270000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>2.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58C817E-D89D-41B8-BC31-9BE4163C147D}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>41.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>3.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2160B-04FF-419C-A122-0F80AD2353FA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>2.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SiK_Radios.xlsx
+++ b/SiK_Radios.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Miers\Documents\Christopher Newport University\Grad Research\Sik_Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Sik_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2253B7-3931-4784-A92D-0EE95B884F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00A2C9-38CD-49F6-8330-246AF239A8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{48E60877-4D87-47E2-9DD7-EC0BD204F274}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{48E60877-4D87-47E2-9DD7-EC0BD204F274}"/>
   </bookViews>
   <sheets>
-    <sheet name="Radio IDs" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="3" sheetId="4" r:id="rId4"/>
-    <sheet name="4" sheetId="5" r:id="rId5"/>
-    <sheet name="5" sheetId="9" r:id="rId6"/>
-    <sheet name="6" sheetId="8" r:id="rId7"/>
-    <sheet name="7" sheetId="10" r:id="rId8"/>
-    <sheet name="8" sheetId="7" r:id="rId9"/>
+    <sheet name="Radio Labels" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
+    <sheet name="4" sheetId="9" r:id="rId6"/>
+    <sheet name="5" sheetId="8" r:id="rId7"/>
+    <sheet name="6" sheetId="10" r:id="rId8"/>
+    <sheet name="7" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,9 +42,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
-  <si>
-    <t>ID</t>
-  </si>
   <si>
     <t>Radio Name</t>
   </si>
@@ -127,6 +124,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Label Index</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$A$2:$A$1000</c:f>
+              <c:f>'0'!$A$2:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -339,34 +339,34 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>1.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7570000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8100000000000002E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.10299999999999999</c:v>
@@ -379,7 +379,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$B$2:$B$1000</c:f>
+              <c:f>'0'!$B$2:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -387,34 +387,34 @@
                   <c:v>44.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>25.167999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19.11</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29.81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.809999999999999</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>14.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.98</c:v>
@@ -874,7 +874,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2'!$A$2:$A$1000</c:f>
+              <c:f>'1'!$A$2:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -910,7 +910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$B$2:$B$1000</c:f>
+              <c:f>'1'!$B$2:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -1421,7 +1421,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$A$2:$A$1001</c:f>
+              <c:f>'2'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -1457,7 +1457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$B$2:$B$1001</c:f>
+              <c:f>'2'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -1971,7 +1971,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'4'!$A$2:$A$1001</c:f>
+              <c:f>'3'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -2010,7 +2010,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4'!$B$2:$B$1001</c:f>
+              <c:f>'3'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -2527,7 +2527,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$A$2:$A$1001</c:f>
+              <c:f>'4'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -2566,7 +2566,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$B$2:$B$1001</c:f>
+              <c:f>'4'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -3083,7 +3083,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$2:$A$1001</c:f>
+              <c:f>'5'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -3122,7 +3122,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$B$2:$B$1001</c:f>
+              <c:f>'5'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -3639,7 +3639,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$A$2:$A$1001</c:f>
+              <c:f>'6'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -3678,7 +3678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$B$2:$B$1001</c:f>
+              <c:f>'6'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -4195,7 +4195,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'8'!$A$2:$A$1001</c:f>
+              <c:f>'7'!$A$2:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -4234,7 +4234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'8'!$B$2:$B$1001</c:f>
+              <c:f>'7'!$B$2:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -9039,15 +9039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9674,125 +9674,126 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9806,26 +9807,26 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1E-3</v>
       </c>
@@ -9833,87 +9834,87 @@
         <v>44.77</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>31.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="B6">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B7">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>0.01</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>25.167999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B4">
-        <v>31.06</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="B9">
+        <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="B5">
-        <v>27.03</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.02</v>
+      </c>
+      <c r="B10">
+        <v>19.11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B6">
-        <v>35.49</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B11">
+        <v>14.94</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.02</v>
-      </c>
-      <c r="B7">
-        <v>19.11</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B12">
+        <v>10.08</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.7570000000000001E-3</v>
-      </c>
-      <c r="B8">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="B9">
-        <v>29.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="B10">
-        <v>19.809999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="B11">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="B12">
-        <v>14.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.10299999999999999</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.193</v>
       </c>
@@ -9930,6 +9931,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition descending="1" ref="B2:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9943,20 +9947,20 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>40.72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -9972,7 +9976,7 @@
         <v>36.090000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>31.66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.02</v>
       </c>
@@ -9996,7 +10000,7 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10012,7 +10016,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.10299999999999999</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -10042,20 +10046,20 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10063,7 +10067,7 @@
         <v>39.909999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>36.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>31.41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10087,7 +10091,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10111,7 +10115,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10141,20 +10145,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>44.75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>40.020000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10178,7 +10182,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>30.94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>24.91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10226,7 +10230,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -10248,20 +10252,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>46.29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10277,7 +10281,7 @@
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10293,7 +10297,7 @@
         <v>32.21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10301,7 +10305,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10317,7 +10321,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -10355,20 +10359,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10392,7 +10396,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10400,7 +10404,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10408,7 +10412,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10424,7 +10428,7 @@
         <v>15.87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10432,7 +10436,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10440,7 +10444,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -10462,20 +10466,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10491,7 +10495,7 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10499,7 +10503,7 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10547,7 +10551,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>
@@ -10569,20 +10573,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9.859999999999999E-4</v>
       </c>
@@ -10590,7 +10594,7 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>35.76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -10622,7 +10626,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -10638,7 +10642,7 @@
         <v>15.49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10646,7 +10650,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10299999999999999</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2</v>
       </c>

--- a/SiK_Radios.xlsx
+++ b/SiK_Radios.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Sik_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00A2C9-38CD-49F6-8330-246AF239A8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1051D9-20C1-44A1-BB4B-337DAA395D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{48E60877-4D87-47E2-9DD7-EC0BD204F274}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21120" windowHeight="13650" xr2:uid="{48E60877-4D87-47E2-9DD7-EC0BD204F274}"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Labels" sheetId="1" r:id="rId1"/>
-    <sheet name="0" sheetId="2" r:id="rId2"/>
-    <sheet name="1" sheetId="3" r:id="rId3"/>
-    <sheet name="2" sheetId="4" r:id="rId4"/>
-    <sheet name="3" sheetId="5" r:id="rId5"/>
-    <sheet name="4" sheetId="9" r:id="rId6"/>
-    <sheet name="5" sheetId="8" r:id="rId7"/>
-    <sheet name="6" sheetId="10" r:id="rId8"/>
-    <sheet name="7" sheetId="7" r:id="rId9"/>
+    <sheet name="Data File Formats" sheetId="14" r:id="rId2"/>
+    <sheet name="GNU Radio Parameters" sheetId="13" r:id="rId3"/>
+    <sheet name="0" sheetId="2" r:id="rId4"/>
+    <sheet name="1" sheetId="3" r:id="rId5"/>
+    <sheet name="2" sheetId="12" r:id="rId6"/>
+    <sheet name="3" sheetId="4" r:id="rId7"/>
+    <sheet name="4" sheetId="5" r:id="rId8"/>
+    <sheet name="5" sheetId="9" r:id="rId9"/>
+    <sheet name="6" sheetId="8" r:id="rId10"/>
+    <sheet name="7" sheetId="10" r:id="rId11"/>
+    <sheet name="8" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Radio Name</t>
   </si>
@@ -52,16 +55,10 @@
     <t>mRo 3DR Radio  "2"</t>
   </si>
   <si>
-    <t>mRo 3DR Radio  "3"</t>
-  </si>
-  <si>
     <t>3DR "TL1"</t>
   </si>
   <si>
     <t>3DR "T1"</t>
-  </si>
-  <si>
-    <t>Spare or "Bonus"</t>
   </si>
   <si>
     <t>RFD900 "111"</t>
@@ -128,12 +125,117 @@
   <si>
     <t>Label Index</t>
   </si>
+  <si>
+    <t>mRo 3DR Radio "3"</t>
+  </si>
+  <si>
+    <t>No Noise</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"RFD900" Center Frequency (MHz)</t>
+  </si>
+  <si>
+    <t>"3DR"  Center Frequency (MHz)</t>
+  </si>
+  <si>
+    <t>Channel Bandwidth (MHz)</t>
+  </si>
+  <si>
+    <t>Sample Rate (MS/s)</t>
+  </si>
+  <si>
+    <t>40dB</t>
+  </si>
+  <si>
+    <t>35dB</t>
+  </si>
+  <si>
+    <t>30dB</t>
+  </si>
+  <si>
+    <t>25dB</t>
+  </si>
+  <si>
+    <t>20dB</t>
+  </si>
+  <si>
+    <t>15dB</t>
+  </si>
+  <si>
+    <t>10dB</t>
+  </si>
+  <si>
+    <t>5dB</t>
+  </si>
+  <si>
+    <t>2dB</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Raw Signal and Noise Samples</t>
+  </si>
+  <si>
+    <t>&lt;AWGN_noise_seed&gt;_&lt;noise_amplitude&gt;.data</t>
+  </si>
+  <si>
+    <t>Noise Samples</t>
+  </si>
+  <si>
+    <t>noise_&lt;AWGN_noise_seed&gt;_&lt;noise_amplitude&gt;.data</t>
+  </si>
+  <si>
+    <t>Filtered Data - Removes "Quiet" Periods</t>
+  </si>
+  <si>
+    <t>Signal and Noise Samples</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Filename Format</t>
+  </si>
+  <si>
+    <t>File Datatype</t>
+  </si>
+  <si>
+    <t>Float32</t>
+  </si>
+  <si>
+    <t>Data Sequence</t>
+  </si>
+  <si>
+    <t>IQIQIQ…</t>
+  </si>
+  <si>
+    <t>filtered_&lt;signal_energy_threshold&gt;_&lt;AWGN_noise_seed&gt;_&lt;noise_amplitude&gt;.data</t>
+  </si>
+  <si>
+    <t>noise_reduced_&lt;AWGN_noise_seed&gt;_&lt;noise_amplitude&gt;.data</t>
+  </si>
+  <si>
+    <t>Signal and Noise Samples with SNR</t>
+  </si>
+  <si>
+    <t>filtered_&lt;signal_energy_threshold&gt;_&lt;AWGN_noise_seed&gt;_&lt;noise_amplitude&gt;_&lt;SNR&gt;.data</t>
+  </si>
+  <si>
+    <t>Approximate Data Collection Times  per SNR (mm:ss)</t>
+  </si>
+  <si>
+    <t>*Indicates samples used for model training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +258,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,18 +294,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,7 +456,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'0'!$A$2:$A$1000</c:f>
+              <c:f>'0'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -379,7 +504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0'!$B$2:$B$1000</c:f>
+              <c:f>'0'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -874,7 +999,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$A$2:$A$1000</c:f>
+              <c:f>'1'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -910,7 +1035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$B$2:$B$1000</c:f>
+              <c:f>'1'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -1421,72 +1546,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2'!$A$2:$A$1001</c:f>
+              <c:f>'2'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>9.859999999999999E-4</c:v>
+                  <c:v>1.7570000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7570000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10299999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$B$2:$B$1001</c:f>
+              <c:f>'2'!$B$3:$B$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>39.909999999999997</c:v>
+                  <c:v>39.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.56</c:v>
+                  <c:v>34.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.41</c:v>
+                  <c:v>30.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.06</c:v>
+                  <c:v>24.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>18.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.94</c:v>
+                  <c:v>14.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.15</c:v>
+                  <c:v>9.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.84</c:v>
+                  <c:v>5.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,7 +1619,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A0B-47DD-AB9D-A5BF9E30B89D}"/>
+              <c16:uniqueId val="{00000001-501D-4257-A867-B15D72536787}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1971,7 +2096,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'3'!$A$2:$A$1001</c:f>
+              <c:f>'3'!$A$3:$A$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
@@ -2002,47 +2127,41 @@
                 <c:pt idx="8">
                   <c:v>0.10299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3'!$B$2:$B$1001</c:f>
+              <c:f>'3'!$B$3:$B$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>44.75</c:v>
+                  <c:v>39.909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.020000000000003</c:v>
+                  <c:v>36.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.369999999999997</c:v>
+                  <c:v>31.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.94</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.91</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.940000000000001</c:v>
+                  <c:v>13.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.95</c:v>
+                  <c:v>10.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.1</c:v>
+                  <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,7 +2169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6A4-406A-8227-3837126805E7}"/>
+              <c16:uniqueId val="{00000001-7A0B-47DD-AB9D-A5BF9E30B89D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2527,38 +2646,35 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'4'!$A$2:$A$1001</c:f>
+              <c:f>'4'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>9.859999999999999E-4</c:v>
+                  <c:v>1.7570000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7570000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2566,39 +2682,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4'!$B$2:$B$1001</c:f>
+              <c:f>'4'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>46.29</c:v>
+                  <c:v>40.020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.659999999999997</c:v>
+                  <c:v>35.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.71</c:v>
+                  <c:v>30.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.21</c:v>
+                  <c:v>24.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.25</c:v>
+                  <c:v>18.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.29</c:v>
+                  <c:v>14.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.3</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.15</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,7 +2719,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0BE8-4BD4-AD76-9F6CD3A44DC2}"/>
+              <c16:uniqueId val="{00000001-C6A4-406A-8227-3837126805E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3083,38 +3196,35 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'5'!$A$2:$A$1001</c:f>
+              <c:f>'5'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>9.859999999999999E-4</c:v>
+                  <c:v>1.7570000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7570000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3122,39 +3232,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'5'!$B$2:$B$1001</c:f>
+              <c:f>'5'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>45.92</c:v>
+                  <c:v>40.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.9</c:v>
+                  <c:v>36.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.270000000000003</c:v>
+                  <c:v>32.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.77</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.81</c:v>
+                  <c:v>20.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.87</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.87</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.91</c:v>
+                  <c:v>6.98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.94</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,7 +3269,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F1A-435B-9406-B0680FFD2872}"/>
+              <c16:uniqueId val="{00000001-0BE8-4BD4-AD76-9F6CD3A44DC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3639,38 +3746,35 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'6'!$A$2:$A$1001</c:f>
+              <c:f>'6'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>9.859999999999999E-4</c:v>
+                  <c:v>1.7570000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7570000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3678,39 +3782,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6'!$B$2:$B$1001</c:f>
+              <c:f>'6'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>45.99</c:v>
+                  <c:v>40.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.09</c:v>
+                  <c:v>36.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.47</c:v>
+                  <c:v>31.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.08</c:v>
+                  <c:v>25.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.02</c:v>
+                  <c:v>19.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.07</c:v>
+                  <c:v>15.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.09</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.1</c:v>
+                  <c:v>6.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.05</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,7 +3819,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66E6-4F2E-B332-72E539B0CC75}"/>
+              <c16:uniqueId val="{00000001-7F1A-435B-9406-B0680FFD2872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4195,38 +4296,35 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'7'!$A$2:$A$1001</c:f>
+              <c:f>'7'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>9.859999999999999E-4</c:v>
+                  <c:v>1.7570000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7570000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4234,38 +4332,585 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'7'!$B$2:$B$1001</c:f>
+              <c:f>'7'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
-                  <c:v>45.49</c:v>
+                  <c:v>41.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>36.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66E6-4F2E-B332-72E539B0CC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903229440"/>
+        <c:axId val="40562912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903229440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Noise Amplitude (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40562912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40562912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903229440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SNR vs. Noise Amplitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10471528332950036"/>
+          <c:y val="0.11756569847856155"/>
+          <c:w val="0.85130010695811842"/>
+          <c:h val="0.72889589527450149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SNR vs Noise Amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.351366545106757E-2"/>
+                  <c:y val="-7.5420655405626161E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8'!$A$3:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>1.7570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8'!$B$3:$B$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
                   <c:v>40.549999999999997</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.76</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.76</c:v>
+                  <c:v>31.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.35</c:v>
+                  <c:v>25.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.34</c:v>
+                  <c:v>19.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.45</c:v>
+                  <c:v>15.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.49</c:v>
+                  <c:v>10.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.53</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>2.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -4906,6 +5551,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9034,19 +9719,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>440055</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9079,16 +10280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9128,7 +10329,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9136,7 +10337,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F555E-CB94-4ACF-A820-E3E0DACEBD71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297BBE61-5255-48A5-A604-C4C47412820F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9171,7 +10372,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9179,7 +10380,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0774D267-9DFA-421D-AD41-33EA8A812233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F555E-CB94-4ACF-A820-E3E0DACEBD71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9214,7 +10415,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9222,7 +10423,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567D629C-0ADB-422D-B498-B30CE77E6FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0774D267-9DFA-421D-AD41-33EA8A812233}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9257,7 +10458,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9265,7 +10466,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F08BBE-F728-4EF8-BC9B-D4C4603FF9A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567D629C-0ADB-422D-B498-B30CE77E6FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9300,7 +10501,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9308,7 +10509,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6376C1-4909-4251-8EC2-2EADF0018640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F08BBE-F728-4EF8-BC9B-D4C4603FF9A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9343,7 +10544,50 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6376C1-4909-4251-8EC2-2EADF0018640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9674,7 +10918,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9686,13 +10930,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9714,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9722,10 +10966,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9736,7 +10980,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9744,10 +10988,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9755,10 +10999,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9766,10 +11010,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9777,24 +11021,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9802,12 +11047,604 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15A17B5-23D0-4506-A598-97194157C207}">
-  <dimension ref="A1:J14"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09446A-2BDF-477A-B1B7-9FB188606C8E}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>36.270000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>2.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58C817E-D89D-41B8-BC31-9BE4163C147D}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>41.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>3.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2160B-04FF-419C-A122-0F80AD2353FA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>40.549999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.02</v>
+      </c>
+      <c r="B7">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B8">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>2.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FFF7EA-B853-4B11-816A-C2EB95876CCD}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="str">
+        <f>$C$4</f>
+        <v>Float32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="str">
+        <f>$C$4</f>
+        <v>Float32</v>
+      </c>
+      <c r="D8" t="str">
+        <f>$D$4</f>
+        <v>IQIQIQ…</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="str">
+        <f>$C$4</f>
+        <v>Float32</v>
+      </c>
+      <c r="D9" t="str">
+        <f>$D$4</f>
+        <v>IQIQIQ…</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="str">
+        <f>$C$4</f>
+        <v>Float32</v>
+      </c>
+      <c r="D10" t="str">
+        <f>$D$4</f>
+        <v>IQIQIQ…</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1074A390-9C18-470A-8AFA-FC817E83FEE7}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>915.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>915.16700000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <f>$B$9</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" ref="B11:B16" si="0">$B$9</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15A17B5-23D0-4506-A598-97194157C207}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9819,132 +11656,142 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1E-3</v>
-      </c>
-      <c r="B2">
-        <v>44.77</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.7570000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="B3">
-        <v>40.1</v>
+        <v>44.77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7570000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>35.49</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>31.06</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.7000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>29.81</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.0000000000000002E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="B7">
-        <v>27.03</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B8">
-        <v>25.167999999999999</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.8100000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B9">
-        <v>19.809999999999999</v>
+        <v>25.167999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.02</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="B10">
-        <v>19.11</v>
+        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B11">
-        <v>14.94</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B12">
-        <v>10.08</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.10299999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B13">
-        <v>5.98</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B14">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.193</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2.7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition descending="1" ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B15">
+    <sortCondition descending="1" ref="B3:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A8E1B2-BE27-4666-B6CF-C7389E633835}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9954,81 +11801,89 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.7570000000000001E-3</v>
-      </c>
-      <c r="B2">
-        <v>40.72</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7570000000000001E-3</v>
       </c>
       <c r="B3">
-        <v>36.090000000000003</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>31.66</v>
+        <v>36.090000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>25.66</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B6">
-        <v>19.670000000000002</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B7">
-        <v>15.67</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B8">
-        <v>10.75</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.10299999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B9">
-        <v>6.49</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B10">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>0.2</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2.83</v>
       </c>
     </row>
@@ -10038,12 +11893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13529833-FF2D-46A1-9F72-09DA4CE74B87}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC60A08-2124-485E-A515-A4F74654426C}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10053,26 +11908,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>39.909999999999997</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.7570000000000001E-3</v>
       </c>
-      <c r="B3">
-        <v>36.56</v>
+      <c r="B3" s="3">
+        <v>39.64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10080,7 +11935,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>31.41</v>
+        <v>34.880000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10088,7 +11943,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>25.06</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10096,7 +11951,7 @@
         <v>0.01</v>
       </c>
       <c r="B6">
-        <v>19.899999999999999</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10104,7 +11959,7 @@
         <v>0.02</v>
       </c>
       <c r="B7">
-        <v>13.94</v>
+        <v>18.440000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10112,7 +11967,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="B8">
-        <v>10.15</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10120,7 +11975,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="B9">
-        <v>5.84</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10128,7 +11983,15 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="B10">
-        <v>2.8</v>
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2</v>
+      </c>
+      <c r="B11">
+        <v>2.29</v>
       </c>
     </row>
   </sheetData>
@@ -10137,12 +12000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A4F9F2-D422-4BD7-AA8D-5B20FD6C8346}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13529833-FF2D-46A1-9F72-09DA4CE74B87}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,90 +12015,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>9.859999999999999E-4</v>
       </c>
-      <c r="B2" s="3">
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.7570000000000001E-3</v>
-      </c>
-      <c r="B3">
-        <v>40.020000000000003</v>
+      <c r="B3" s="3">
+        <v>39.909999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7570000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>35.369999999999997</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>30.94</v>
+        <v>31.41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>24.91</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B7">
-        <v>18.940000000000001</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B8">
-        <v>14.95</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.8000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B9">
-        <v>10.1</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.10299999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B10">
-        <v>5.93</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="B11">
-        <v>2.5099999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -10244,12 +12107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2379C5-A802-416D-911E-D9D45E5451F4}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A4F9F2-D422-4BD7-AA8D-5B20FD6C8346}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10259,18 +12122,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>46.29</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10278,7 +12141,7 @@
         <v>1.7570000000000001E-3</v>
       </c>
       <c r="B3">
-        <v>40.659999999999997</v>
+        <v>40.020000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10286,7 +12149,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>36.71</v>
+        <v>35.369999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10294,7 +12157,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>32.21</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10302,7 +12165,7 @@
         <v>0.01</v>
       </c>
       <c r="B6">
-        <v>26.25</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10310,7 +12173,7 @@
         <v>0.02</v>
       </c>
       <c r="B7">
-        <v>20.29</v>
+        <v>18.940000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10318,7 +12181,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="B8">
-        <v>16.3</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10326,7 +12189,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="B9">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10334,7 +12197,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="B10">
-        <v>6.98</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10342,7 +12205,7 @@
         <v>0.2</v>
       </c>
       <c r="B11">
-        <v>3.15</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10351,12 +12214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09446A-2BDF-477A-B1B7-9FB188606C8E}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2379C5-A802-416D-911E-D9D45E5451F4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10366,18 +12229,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45.92</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10385,7 +12248,7 @@
         <v>1.7570000000000001E-3</v>
       </c>
       <c r="B3">
-        <v>40.9</v>
+        <v>40.659999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10393,7 +12256,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>36.270000000000003</v>
+        <v>36.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10401,7 +12264,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>31.77</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10409,7 +12272,7 @@
         <v>0.01</v>
       </c>
       <c r="B6">
-        <v>25.81</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10417,7 +12280,7 @@
         <v>0.02</v>
       </c>
       <c r="B7">
-        <v>19.87</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10425,7 +12288,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="B8">
-        <v>15.87</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10433,7 +12296,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="B9">
-        <v>10.91</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10441,7 +12304,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="B10">
-        <v>6.64</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10449,221 +12312,7 @@
         <v>0.2</v>
       </c>
       <c r="B11">
-        <v>2.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58C817E-D89D-41B8-BC31-9BE4163C147D}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.7570000000000001E-3</v>
-      </c>
-      <c r="B3">
-        <v>41.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B4">
-        <v>36.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B5">
-        <v>32.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.01</v>
-      </c>
-      <c r="B6">
-        <v>26.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.02</v>
-      </c>
-      <c r="B7">
-        <v>20.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="B8">
-        <v>16.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="B9">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="B10">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.2</v>
-      </c>
-      <c r="B11">
-        <v>3.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2160B-04FF-419C-A122-0F80AD2353FA}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>9.859999999999999E-4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.7570000000000001E-3</v>
-      </c>
-      <c r="B3">
-        <v>40.549999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B4">
-        <v>35.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B5">
-        <v>31.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.01</v>
-      </c>
-      <c r="B6">
-        <v>25.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.02</v>
-      </c>
-      <c r="B7">
-        <v>19.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="B8">
-        <v>15.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="B9">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="B10">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.2</v>
-      </c>
-      <c r="B11">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
     </row>
   </sheetData>
